--- a/input/can_list/TourSheet.xlsx
+++ b/input/can_list/TourSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7455"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="80">
   <si>
     <t>Can Nr.</t>
   </si>
@@ -55,15 +55,96 @@
     <t>Kapuzinergasse 9</t>
   </si>
   <si>
+    <t>Am Winterhafen 1</t>
+  </si>
+  <si>
+    <t>Donaulände 6</t>
+  </si>
+  <si>
+    <t>Am Weinmarkt 3</t>
+  </si>
+  <si>
+    <t>Brunnleite 1</t>
+  </si>
+  <si>
+    <t>Hundsumkehr 1</t>
+  </si>
+  <si>
+    <t>Am Singrün 2a</t>
+  </si>
+  <si>
+    <t>Nonnenplatz 6</t>
+  </si>
+  <si>
     <t>Schwanenplatz 3</t>
   </si>
   <si>
+    <t>Nonnenplatz 8</t>
+  </si>
+  <si>
+    <t>Kreuzgasse 5</t>
+  </si>
+  <si>
+    <t>Wollwirkergasse 7</t>
+  </si>
+  <si>
+    <t>Am Judenstein 7</t>
+  </si>
+  <si>
+    <t>Rühlgässel 3</t>
+  </si>
+  <si>
+    <t>Am Schulbergl 2</t>
+  </si>
+  <si>
+    <t>Am Schulbergl 1</t>
+  </si>
+  <si>
+    <t>Dänzergasse 6</t>
+  </si>
+  <si>
+    <t>Hinter der Pfannenschmiede 1</t>
+  </si>
+  <si>
+    <t>Engelburgergasse 23</t>
+  </si>
+  <si>
+    <t>Frauenbergl 4</t>
+  </si>
+  <si>
+    <t>Weißbräuhausgasse 2</t>
+  </si>
+  <si>
+    <t>Fuchsengang 6</t>
+  </si>
+  <si>
+    <t>Malergasse 4</t>
+  </si>
+  <si>
+    <t>Niedermünstergasse 3</t>
+  </si>
+  <si>
+    <t>Alter Kornmarkt 8</t>
+  </si>
+  <si>
+    <t>Ernst-Reuter-Platz 2</t>
+  </si>
+  <si>
+    <t>St.-Peters-Weg 2a</t>
+  </si>
+  <si>
+    <t>Emmeramsplatz 3</t>
+  </si>
+  <si>
     <t>public</t>
   </si>
   <si>
     <t>private</t>
   </si>
   <si>
+    <t>Ägidienplatz 7</t>
+  </si>
+  <si>
     <t>full</t>
   </si>
   <si>
@@ -79,6 +160,9 @@
     <t>GPS long</t>
   </si>
   <si>
+    <t>Bismarckplatz 1</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -109,121 +193,70 @@
     <t>Landshuterstraße 10</t>
   </si>
   <si>
+    <t>Wöhrdstraße 44</t>
+  </si>
+  <si>
+    <t>Wöhrdstraße 35</t>
+  </si>
+  <si>
+    <t>Maffeistraße 18</t>
+  </si>
+  <si>
+    <t>Wöhrdstraße 17</t>
+  </si>
+  <si>
+    <t>Thundorferstraße 4</t>
+  </si>
+  <si>
+    <t>Keplerstraße 18</t>
+  </si>
+  <si>
+    <t>Weitolderstraße 1</t>
+  </si>
+  <si>
+    <t>Jakobstraße 14</t>
+  </si>
+  <si>
+    <t>Gesandtenstraße 16</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 3</t>
+  </si>
+  <si>
+    <t>Obermünsterstraße 7</t>
+  </si>
+  <si>
+    <t>Bahnhofstraße 24</t>
+  </si>
+  <si>
+    <t>Albertstraße 8</t>
+  </si>
+  <si>
+    <t>Hemauerstraße 12a</t>
+  </si>
+  <si>
+    <t>Margaretenstraße 16</t>
+  </si>
+  <si>
+    <t>Margaretenstraße 7b</t>
+  </si>
+  <si>
+    <t>Margaretenstraße 8a</t>
+  </si>
+  <si>
     <t>Von-der-Tann-Straße 17</t>
   </si>
   <si>
+    <t>Dr.-Martin-Luther-Straße 18</t>
+  </si>
+  <si>
+    <t>Dr.Martin-Luther-Straße 2</t>
+  </si>
+  <si>
     <t>Start A</t>
   </si>
   <si>
     <t>End A</t>
-  </si>
-  <si>
-    <t>49.01392</t>
-  </si>
-  <si>
-    <t>12.10602</t>
-  </si>
-  <si>
-    <t>49.01222</t>
-  </si>
-  <si>
-    <t>12.10715</t>
-  </si>
-  <si>
-    <t>49.01221</t>
-  </si>
-  <si>
-    <t>12.10556</t>
-  </si>
-  <si>
-    <t>49.01272</t>
-  </si>
-  <si>
-    <t>12.10569</t>
-  </si>
-  <si>
-    <t>49.01493</t>
-  </si>
-  <si>
-    <t>12.10497</t>
-  </si>
-  <si>
-    <t>49.01632</t>
-  </si>
-  <si>
-    <t>12.10438</t>
-  </si>
-  <si>
-    <t>49.01734</t>
-  </si>
-  <si>
-    <t>12.10702</t>
-  </si>
-  <si>
-    <t>49.01815</t>
-  </si>
-  <si>
-    <t>12.10470</t>
-  </si>
-  <si>
-    <t>49.01833</t>
-  </si>
-  <si>
-    <t>12.10686</t>
-  </si>
-  <si>
-    <t>49.01888</t>
-  </si>
-  <si>
-    <t>12.10580</t>
-  </si>
-  <si>
-    <t>49.01861</t>
-  </si>
-  <si>
-    <t>12.10209</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>2.6 km</t>
-  </si>
-  <si>
-    <t>2.5 km</t>
-  </si>
-  <si>
-    <t>2.4 km</t>
-  </si>
-  <si>
-    <t>2.2 km</t>
-  </si>
-  <si>
-    <t>2.3 km</t>
-  </si>
-  <si>
-    <t>2.8 km</t>
-  </si>
-  <si>
-    <t>2.9 km</t>
-  </si>
-  <si>
-    <t>3.1 km</t>
-  </si>
-  <si>
-    <t>1.6 km</t>
-  </si>
-  <si>
-    <t>1.8 km</t>
-  </si>
-  <si>
-    <t>1.7 km</t>
-  </si>
-  <si>
-    <t>2.0 km</t>
-  </si>
-  <si>
-    <t>1.9 km</t>
   </si>
 </sst>
 </file>
@@ -233,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##&quot;.&quot;#####"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,7 +354,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,7 +365,14 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,6 +384,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -351,15 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,652 +704,1601 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="25" width="15.7109375" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="12"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="12"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="29">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="24">
+        <v>79</v>
+      </c>
+      <c r="D3" s="30">
         <v>64</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="12"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="26"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="21">
         <v>181</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="9"/>
+      <c r="B6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4901392</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1210602</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="21">
         <v>471</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="9"/>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4901222</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1210715</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="21">
         <v>432</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="9"/>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4901221</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1210556</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="22">
         <v>244</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4901272</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1210569</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="9"/>
+      <c r="G9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="21">
         <v>422</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4901493</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1210497</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="21">
         <v>460</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4901632</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1210438</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="21">
         <v>421</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="9"/>
+      <c r="D12" s="19">
+        <v>4901734</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1210702</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="21">
         <v>426</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="9"/>
+      <c r="D13" s="19">
+        <v>4901815</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1210470</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="22">
         <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
+      <c r="D14" s="14">
+        <v>4901833</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1210686</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>423</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="19">
+        <v>4901888</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1210580</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>425</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4901861</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1210209</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>441</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19">
+        <v>4902139</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1210853</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>207</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4902144</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1210667</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>442</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4902166</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1210623</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>443</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="19">
+        <v>4902248</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1210435</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>444</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="19">
+        <v>4902203</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1210342</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>424</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="19">
+        <v>4901981</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1210542</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>438</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="19">
+        <v>4902085</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1209850</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>497</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19">
+        <v>4902141</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1209285</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>418</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19">
+        <v>4902168</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1209159</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>419</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4902168</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1209151</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>404</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4902192</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1208855</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>405</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4902277</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1208372</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>406</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="19">
+        <v>4902158</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1208354</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>482</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4902079</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1208413</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14">
+        <v>4902053</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1208523</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>423</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>425</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D32" s="14">
+        <v>4901960</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1208890</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>481</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="19">
+        <v>4902035</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1208831</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>402</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="19">
+        <v>4902022</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1208566</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>478</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="19">
+        <v>4902099</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1208610</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>403</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="19">
+        <v>4902145</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1208648</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>427</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-    </row>
-    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-    </row>
-    <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-    </row>
-    <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-    </row>
-    <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-    </row>
-    <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-    </row>
-    <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-    </row>
-    <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-    </row>
-    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-    </row>
-    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-    </row>
-    <row r="62" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-    </row>
-    <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-    </row>
-    <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-    </row>
-    <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-    </row>
-    <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-    </row>
-    <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-    </row>
-    <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="D37" s="19">
+        <v>4901891</v>
+      </c>
+      <c r="E37" s="19">
+        <v>1208747</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>117</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="19">
+        <v>4902055</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1209039</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>155</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="14">
+        <v>4902047</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1209045</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>480</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="19">
+        <v>4901837</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1208972</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>467</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4901859</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1209179</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>479</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4901792</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1209178</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>417</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="19">
+        <v>4901697</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1209031</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>416</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="19">
+        <v>4901783</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1209338</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>78</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="14">
+        <v>4901971</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1209117</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>420</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="19">
+        <v>4902003</v>
+      </c>
+      <c r="E46" s="19">
+        <v>1209093</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>437</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="19">
+        <v>4901844</v>
+      </c>
+      <c r="E47" s="19">
+        <v>1209860</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>436</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="19">
+        <v>4901722</v>
+      </c>
+      <c r="E48" s="19">
+        <v>1209870</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>440</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="19">
+        <v>4901525</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1209917</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>434</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="19">
+        <v>4901668</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1209557</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>435</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="19">
+        <v>4901759</v>
+      </c>
+      <c r="E51" s="19">
+        <v>1209684</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>119</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="14">
+        <v>4901943</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1210040</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>429</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="19">
+        <v>4901855</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1210046</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>430</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="19">
+        <v>4901418</v>
+      </c>
+      <c r="E54" s="19">
+        <v>1210142</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>431</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="19">
+        <v>4901323</v>
+      </c>
+      <c r="E55" s="19">
+        <v>1210209</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>183</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="19">
+        <v>4901246</v>
+      </c>
+      <c r="E56" s="19">
+        <v>1210171</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>433</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="19">
+        <v>4901354</v>
+      </c>
+      <c r="E57" s="19">
+        <v>1209678</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>414</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="19">
+        <v>4901598</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1209365</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>415</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="19">
+        <v>4901628</v>
+      </c>
+      <c r="E59" s="19">
+        <v>1209295</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>156</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="14">
+        <v>4901302</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1210389</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>428</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="19">
+        <v>4901674</v>
+      </c>
+      <c r="E61" s="19">
+        <v>1210165</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>411</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="19">
+        <v>4901254</v>
+      </c>
+      <c r="E62" s="19">
+        <v>1209314</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>412</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="19">
+        <v>4901330</v>
+      </c>
+      <c r="E63" s="19">
+        <v>1209053</v>
+      </c>
+      <c r="F63" s="18">
+        <v>1</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>413</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="19">
+        <v>4901340</v>
+      </c>
+      <c r="E64" s="19">
+        <v>1209013</v>
+      </c>
+      <c r="F64" s="18">
+        <v>1</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1332,15 +2321,15 @@
         <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="14">
         <v>4901392</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="14">
         <v>1210602</v>
       </c>
       <c r="F1" s="3">
@@ -1353,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1364,15 +2353,15 @@
         <v>471</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="14">
         <v>4901222</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>1210715</v>
       </c>
       <c r="F2" s="3">
@@ -1385,10 +2374,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1396,15 +2385,15 @@
         <v>432</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>4901221</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>1210556</v>
       </c>
       <c r="F3" s="3">
@@ -1417,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,15 +2417,15 @@
         <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>4901272</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>1210569</v>
       </c>
       <c r="F4" s="5">
@@ -1448,11 +2437,11 @@
       <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
+      <c r="I4" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,15 +2449,15 @@
         <v>422</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>4901493</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>1210497</v>
       </c>
       <c r="F5" s="3">
@@ -1481,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,15 +2481,15 @@
         <v>460</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <v>4901632</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>1210438</v>
       </c>
       <c r="F6" s="3">
@@ -1513,10 +2502,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
